--- a/outcome/appendix/Supplementary Appendix 4.xlsx
+++ b/outcome/appendix/Supplementary Appendix 4.xlsx
@@ -500,19 +500,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>6866.25</v>
+        <v>6881.47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4431</v>
+        <v>0.4437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4481</v>
+        <v>0.4465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4483</v>
+        <v>0.4558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6699</v>
+        <v>0.6638</v>
       </c>
     </row>
     <row r="3">
@@ -552,19 +552,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>-1341.63</v>
+        <v>-3012.86</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0764</v>
+        <v>-0.1895</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7092</v>
+        <v>0.8562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8087</v>
+        <v>0.8624</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3901</v>
+        <v>1.4987</v>
       </c>
     </row>
     <row r="5">
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>358232.68</v>
+        <v>358165.56</v>
       </c>
       <c r="E10" t="n">
         <v>0.7914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0922</v>
+        <v>0.0923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1166</v>
+        <v>0.118</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2468</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="11">
@@ -838,19 +838,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2458.58</v>
+        <v>2281.09</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2076</v>
+        <v>0.1955</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5754</v>
+        <v>0.5902</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8699</v>
+        <v>0.8563</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9425</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="16">
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>498.69</v>
+        <v>499.24</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4724</v>
+        <v>0.4727</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4129</v>
+        <v>0.4127</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5283</v>
+        <v>0.528</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6067</v>
+        <v>0.6064</v>
       </c>
     </row>
     <row r="19">
@@ -942,19 +942,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>88395.32</v>
+        <v>88398.98</v>
       </c>
       <c r="E19" t="n">
         <v>0.7676</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1381</v>
+        <v>0.138</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2697</v>
+        <v>0.2701</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3433</v>
+        <v>0.3431</v>
       </c>
     </row>
     <row r="20">
@@ -1046,19 +1046,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>114964.09</v>
+        <v>115001.3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3876</v>
+        <v>0.3877</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5008</v>
+        <v>0.5005</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5796</v>
+        <v>0.5794</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7569</v>
+        <v>0.7573</v>
       </c>
     </row>
     <row r="24">
@@ -1124,19 +1124,19 @@
         <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>1439.52</v>
+        <v>1459.44</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1982</v>
+        <v>0.2004</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7683</v>
+        <v>0.7669</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8786</v>
+        <v>0.8818</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9041</v>
+        <v>0.9058</v>
       </c>
     </row>
     <row r="27">
@@ -1176,19 +1176,19 @@
         <v>37</v>
       </c>
       <c r="D28" t="n">
-        <v>2814.94</v>
+        <v>2750.64</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2902</v>
+        <v>0.2854</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5625</v>
+        <v>0.5658</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7661</v>
+        <v>0.7686</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8681</v>
+        <v>0.8734</v>
       </c>
     </row>
     <row r="29">
@@ -1332,19 +1332,19 @@
         <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>82184.26</v>
+        <v>85206.45</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7044</v>
+        <v>0.7119</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0901</v>
+        <v>0.0864</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1226</v>
+        <v>0.1145</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4143</v>
+        <v>0.3954</v>
       </c>
     </row>
     <row r="35">
@@ -1462,19 +1462,19 @@
         <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>3574.02</v>
+        <v>3512.93</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4532</v>
+        <v>0.4489</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4792</v>
+        <v>0.4875</v>
       </c>
       <c r="G39" t="n">
-        <v>0.523</v>
+        <v>0.529</v>
       </c>
       <c r="H39" t="n">
-        <v>0.608</v>
+        <v>0.6064</v>
       </c>
     </row>
     <row r="40">
@@ -1540,19 +1540,19 @@
         <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>153.07</v>
+        <v>152.95</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2129</v>
+        <v>0.2127</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4945</v>
+        <v>0.4944</v>
       </c>
       <c r="G42" t="n">
         <v>0.5094</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8805</v>
+        <v>0.8809</v>
       </c>
     </row>
     <row r="43">
@@ -1566,16 +1566,16 @@
         <v>37</v>
       </c>
       <c r="D43" t="n">
-        <v>25546.6</v>
+        <v>25546.76</v>
       </c>
       <c r="E43" t="n">
         <v>0.4501</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4524</v>
+        <v>0.4541</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5802</v>
+        <v>0.5831</v>
       </c>
       <c r="H43" t="n">
         <v>0.6423</v>
@@ -1670,19 +1670,19 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>40315.51</v>
+        <v>40155.44</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2827</v>
+        <v>0.2819</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6357</v>
+        <v>0.6367</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7478</v>
+        <v>0.7488</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7996</v>
+        <v>0.8002</v>
       </c>
     </row>
     <row r="48">
@@ -1748,19 +1748,19 @@
         <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>61981.29</v>
+        <v>62362.59</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4556</v>
+        <v>0.4571</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4446</v>
+        <v>0.4504</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5606</v>
+        <v>0.557</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7322</v>
+        <v>0.7303</v>
       </c>
     </row>
     <row r="51">
@@ -1800,19 +1800,19 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>-33178.72</v>
+        <v>-43686.77</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2223</v>
+        <v>-0.3148</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0757</v>
+        <v>1.1858</v>
       </c>
       <c r="G52" t="n">
-        <v>1.2207</v>
+        <v>1.3188</v>
       </c>
       <c r="H52" t="n">
-        <v>1.4168</v>
+        <v>1.5338</v>
       </c>
     </row>
     <row r="53">
@@ -1956,19 +1956,19 @@
         <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>2632491.22</v>
+        <v>2591377.45</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4898</v>
+        <v>0.4858</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2904</v>
+        <v>0.2886</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5147</v>
+        <v>0.5095</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7794</v>
+        <v>0.8019</v>
       </c>
     </row>
     <row r="59">
@@ -2086,19 +2086,19 @@
         <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>6821.75</v>
+        <v>6802.94</v>
       </c>
       <c r="E63" t="n">
-        <v>0.094</v>
+        <v>0.0937</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8092</v>
+        <v>0.8132</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9452</v>
+        <v>0.9324</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9964</v>
+        <v>0.9906</v>
       </c>
     </row>
     <row r="64">
@@ -2164,19 +2164,19 @@
         <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>4892.43</v>
+        <v>4892.84</v>
       </c>
       <c r="E66" t="n">
         <v>0.6966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2291</v>
+        <v>0.2289</v>
       </c>
       <c r="G66" t="n">
         <v>0.2844</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3647</v>
+        <v>0.3646</v>
       </c>
     </row>
     <row r="67">
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>497520.5</v>
+        <v>495688.84</v>
       </c>
       <c r="E67" t="n">
-        <v>0.615</v>
+        <v>0.6141</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3005</v>
+        <v>0.3016</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3871</v>
+        <v>0.3886</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4922</v>
+        <v>0.4938</v>
       </c>
     </row>
     <row r="68">
@@ -2294,19 +2294,19 @@
         <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>383665.45</v>
+        <v>382923.06</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2159</v>
+        <v>0.2156</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7408</v>
+        <v>0.7404</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7954</v>
+        <v>0.7956</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8416</v>
+        <v>0.8415</v>
       </c>
     </row>
     <row r="72">
@@ -2372,19 +2372,19 @@
         <v>39</v>
       </c>
       <c r="D74" t="n">
-        <v>-145841.18</v>
+        <v>-145474.79</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.1017</v>
+        <v>-3.07</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8667</v>
+        <v>0.8439</v>
       </c>
       <c r="G74" t="n">
-        <v>1.1932</v>
+        <v>1.2132</v>
       </c>
       <c r="H74" t="n">
-        <v>2.0233</v>
+        <v>1.9842</v>
       </c>
     </row>
     <row r="75">
@@ -2424,19 +2424,19 @@
         <v>39</v>
       </c>
       <c r="D76" t="n">
-        <v>-14089.92</v>
+        <v>-17018.95</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.2982</v>
+        <v>-0.384</v>
       </c>
       <c r="F76" t="n">
-        <v>1.2208</v>
+        <v>1.3956</v>
       </c>
       <c r="G76" t="n">
-        <v>1.244</v>
+        <v>1.4266</v>
       </c>
       <c r="H76" t="n">
-        <v>1.3391</v>
+        <v>1.4417</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>419730.19</v>
+        <v>424223.26</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2012</v>
+        <v>0.2029</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3637</v>
+        <v>0.3592</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8526</v>
+        <v>0.8346</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9671</v>
+        <v>0.9578</v>
       </c>
     </row>
     <row r="83">
@@ -2710,19 +2710,19 @@
         <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>-3831.59</v>
+        <v>-3512.9</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.189</v>
+        <v>-0.1706</v>
       </c>
       <c r="F87" t="n">
-        <v>1.079</v>
+        <v>1.091</v>
       </c>
       <c r="G87" t="n">
-        <v>1.1709</v>
+        <v>1.1567</v>
       </c>
       <c r="H87" t="n">
-        <v>1.3021</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="88">
@@ -2788,19 +2788,19 @@
         <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>-80.78</v>
+        <v>-80.12</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.042</v>
+        <v>-0.0417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9493</v>
+        <v>0.9488</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9948</v>
+        <v>0.9943</v>
       </c>
       <c r="H90" t="n">
-        <v>1.0987</v>
+        <v>1.0985</v>
       </c>
     </row>
     <row r="91">
@@ -2814,19 +2814,19 @@
         <v>39</v>
       </c>
       <c r="D91" t="n">
-        <v>171695.42</v>
+        <v>171372.36</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6883</v>
+        <v>0.6879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2536</v>
+        <v>0.254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2935</v>
+        <v>0.2933</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3692</v>
+        <v>0.3704</v>
       </c>
     </row>
     <row r="92">
@@ -2918,19 +2918,19 @@
         <v>39</v>
       </c>
       <c r="D95" t="n">
-        <v>90829.5</v>
+        <v>90589.27</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1551</v>
+        <v>0.1548</v>
       </c>
       <c r="F95" t="n">
         <v>0.805</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8473</v>
+        <v>0.8472</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9005</v>
+        <v>0.9008</v>
       </c>
     </row>
     <row r="96">

--- a/outcome/appendix/Supplementary Appendix 4.xlsx
+++ b/outcome/appendix/Supplementary Appendix 4.xlsx
@@ -500,19 +500,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>6881.47</v>
+        <v>5544.48</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4437</v>
+        <v>0.554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4465</v>
+        <v>0.4381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4558</v>
+        <v>0.4512</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6638</v>
+        <v>0.4539</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +526,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>15070.92</v>
+        <v>12087.68</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4101</v>
+        <v>0.5151</v>
       </c>
       <c r="F3" t="n">
+        <v>0.4197</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.4859</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.5552</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.6998</v>
+        <v>0.5206</v>
       </c>
     </row>
     <row r="4">
@@ -552,19 +552,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>-3012.86</v>
+        <v>2439.96</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1895</v>
+        <v>0.2668</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8562</v>
+        <v>0.6872</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8624</v>
+        <v>0.7971</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4987</v>
+        <v>0.817</v>
       </c>
     </row>
     <row r="5">
@@ -578,19 +578,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>13248.63</v>
+        <v>8038.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9848</v>
+        <v>0.9774</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0031</v>
+        <v>0.0028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0045</v>
+        <v>0.0047</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0047</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="6">
@@ -604,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4931.2</v>
+        <v>4248.22</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3305</v>
+        <v>0.4538</v>
       </c>
       <c r="F6" t="n">
+        <v>0.4651</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.5403</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.7434</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.8224</v>
+        <v>0.6418</v>
       </c>
     </row>
     <row r="7">
@@ -630,19 +630,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>296.89</v>
+        <v>515.94</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2012</v>
+        <v>0.5175</v>
       </c>
       <c r="F7" t="n">
+        <v>0.3392</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3947</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.8395</v>
-      </c>
       <c r="H7" t="n">
-        <v>1.0895</v>
+        <v>0.6171</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1892.02</v>
+        <v>1123.53</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5372</v>
+        <v>0.5731</v>
       </c>
       <c r="F8" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.4041</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.4078</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.625</v>
+        <v>0.5416</v>
       </c>
     </row>
     <row r="9">
@@ -682,19 +682,19 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>13466.2</v>
+        <v>11836.94</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2896</v>
+        <v>0.3912</v>
       </c>
       <c r="F9" t="n">
+        <v>0.5423</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.5704</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.7317</v>
-      </c>
       <c r="H9" t="n">
-        <v>0.8875</v>
+        <v>0.6511</v>
       </c>
     </row>
     <row r="10">
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>358165.56</v>
+        <v>259478.27</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7914</v>
+        <v>0.7624</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0923</v>
+        <v>0.1354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.118</v>
+        <v>0.2389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2467</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="11">
@@ -734,19 +734,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>2892.23</v>
+        <v>1676.92</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5653</v>
+        <v>0.508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2748</v>
+        <v>0.3147</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3982</v>
+        <v>0.442</v>
       </c>
       <c r="H11" t="n">
-        <v>0.442</v>
+        <v>0.6784</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>2105.78</v>
+        <v>1863.56</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3481</v>
+        <v>0.5081</v>
       </c>
       <c r="F12" t="n">
+        <v>0.4452</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4712</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.5828</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.8127</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>99140.51</v>
+        <v>110373.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1762</v>
+        <v>0.3334</v>
       </c>
       <c r="F13" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.6721</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.7805</v>
-      </c>
       <c r="H13" t="n">
-        <v>0.9985</v>
+        <v>0.7263</v>
       </c>
     </row>
     <row r="14">
@@ -812,19 +812,19 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>35604.59</v>
+        <v>31401.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.4467</v>
       </c>
       <c r="F14" t="n">
+        <v>0.5108</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.5406</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.6362</v>
-      </c>
       <c r="H14" t="n">
-        <v>0.8357</v>
+        <v>0.5884</v>
       </c>
     </row>
     <row r="15">
@@ -838,19 +838,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2281.09</v>
+        <v>2266.35</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1955</v>
+        <v>0.3581</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5902</v>
+        <v>0.5411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8563</v>
+        <v>0.5855</v>
       </c>
       <c r="H15" t="n">
-        <v>0.976</v>
+        <v>0.7263</v>
       </c>
     </row>
     <row r="16">
@@ -864,19 +864,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>343600.6</v>
+        <v>292645.87</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5013</v>
+        <v>0.7042</v>
       </c>
       <c r="F16" t="n">
+        <v>0.2351</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.2717</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.458</v>
-      </c>
       <c r="H16" t="n">
-        <v>0.6864</v>
+        <v>0.3648</v>
       </c>
     </row>
     <row r="17">
@@ -890,19 +890,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18">
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>499.24</v>
+        <v>348.27</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4727</v>
+        <v>0.5356</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4127</v>
+        <v>0.3831</v>
       </c>
       <c r="G18" t="n">
-        <v>0.528</v>
+        <v>0.4128</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6064</v>
+        <v>0.5097</v>
       </c>
     </row>
     <row r="19">
@@ -942,19 +942,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>88398.98</v>
+        <v>62749.52</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7676</v>
+        <v>0.808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.138</v>
+        <v>0.1174</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2701</v>
+        <v>0.1382</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3431</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="20">
@@ -968,19 +968,19 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>15261.41</v>
+        <v>6307.22</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7282</v>
+        <v>0.5926</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1405</v>
+        <v>0.3134</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2671</v>
+        <v>0.3597</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3597</v>
+        <v>0.4688</v>
       </c>
     </row>
     <row r="21">
@@ -994,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>4133.76</v>
+        <v>1960.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.914</v>
+        <v>0.8942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.059</v>
+        <v>0.0716</v>
       </c>
       <c r="G21" t="n">
         <v>0.0843</v>
       </c>
       <c r="H21" t="n">
-        <v>0.116</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="22">
@@ -1020,19 +1020,19 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>54045.99</v>
+        <v>42103.14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9227</v>
+        <v>0.9294</v>
       </c>
       <c r="F22" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.0559</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.0997</v>
-      </c>
       <c r="H22" t="n">
-        <v>0.1011</v>
+        <v>0.0938</v>
       </c>
     </row>
     <row r="23">
@@ -1046,19 +1046,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>115001.3</v>
+        <v>90481.9</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3877</v>
+        <v>0.5063</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5005</v>
+        <v>0.4516</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5794</v>
+        <v>0.4987</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7573</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="24">
@@ -1072,19 +1072,19 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>50848.87</v>
+        <v>55790.27</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1518</v>
+        <v>0.2908</v>
       </c>
       <c r="F24" t="n">
+        <v>0.6396</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.7382</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.8454</v>
-      </c>
       <c r="H24" t="n">
-        <v>0.8898</v>
+        <v>0.7918</v>
       </c>
     </row>
     <row r="25">
@@ -1098,19 +1098,19 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>34.84</v>
+        <v>70.69</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1004</v>
+        <v>0.2765</v>
       </c>
       <c r="F25" t="n">
+        <v>0.5509</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.5828</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.9065</v>
-      </c>
       <c r="H25" t="n">
-        <v>1.3488</v>
+        <v>0.7447</v>
       </c>
     </row>
     <row r="26">
@@ -1124,19 +1124,19 @@
         <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>1459.44</v>
+        <v>1440.08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2004</v>
+        <v>0.1983</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7669</v>
+        <v>0.7701</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8818</v>
+        <v>0.8731</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9058</v>
+        <v>0.8951</v>
       </c>
     </row>
     <row r="27">
@@ -1176,19 +1176,19 @@
         <v>37</v>
       </c>
       <c r="D28" t="n">
-        <v>2750.64</v>
+        <v>2892.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2854</v>
+        <v>0.2958</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5658</v>
+        <v>0.5591</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7686</v>
+        <v>0.7618</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8734</v>
+        <v>0.8596</v>
       </c>
     </row>
     <row r="29">
@@ -1332,19 +1332,19 @@
         <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>85206.45</v>
+        <v>80394.28</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7119</v>
+        <v>0.6998</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0864</v>
+        <v>0.0927</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1145</v>
+        <v>0.1267</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3954</v>
+        <v>0.4162</v>
       </c>
     </row>
     <row r="35">
@@ -1462,19 +1462,19 @@
         <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>3512.93</v>
+        <v>3556.36</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4489</v>
+        <v>0.452</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4875</v>
+        <v>0.481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.529</v>
+        <v>0.5169</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6064</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="40">
@@ -1540,19 +1540,19 @@
         <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>152.95</v>
+        <v>153</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2127</v>
+        <v>0.2128</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4944</v>
+        <v>0.4945</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5094</v>
+        <v>0.5095</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8809</v>
+        <v>0.8808</v>
       </c>
     </row>
     <row r="43">
@@ -1566,19 +1566,19 @@
         <v>37</v>
       </c>
       <c r="D43" t="n">
-        <v>25546.76</v>
+        <v>25558.82</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4501</v>
+        <v>0.4503</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4541</v>
+        <v>0.452</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5831</v>
+        <v>0.5794</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6423</v>
+        <v>0.6421</v>
       </c>
     </row>
     <row r="44">
@@ -1670,19 +1670,19 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>40155.44</v>
+        <v>40388.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2819</v>
+        <v>0.2831</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6367</v>
+        <v>0.6356</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7488</v>
+        <v>0.7484</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8002</v>
+        <v>0.7994</v>
       </c>
     </row>
     <row r="48">
@@ -1748,19 +1748,19 @@
         <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>62362.59</v>
+        <v>61911.41</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4571</v>
+        <v>0.4553</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4504</v>
+        <v>0.4419</v>
       </c>
       <c r="G50" t="n">
-        <v>0.557</v>
+        <v>0.5578</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7303</v>
+        <v>0.7371</v>
       </c>
     </row>
     <row r="51">
@@ -1800,19 +1800,19 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>-43686.77</v>
+        <v>-38409.54</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3148</v>
+        <v>-0.2666</v>
       </c>
       <c r="F52" t="n">
-        <v>1.1858</v>
+        <v>1.0919</v>
       </c>
       <c r="G52" t="n">
-        <v>1.3188</v>
+        <v>1.3069</v>
       </c>
       <c r="H52" t="n">
-        <v>1.5338</v>
+        <v>1.4935</v>
       </c>
     </row>
     <row r="53">
@@ -1956,19 +1956,19 @@
         <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>2591377.45</v>
+        <v>2644463.3</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4858</v>
+        <v>0.4909</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2886</v>
+        <v>0.2824</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5095</v>
+        <v>0.512</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8019</v>
+        <v>0.7804</v>
       </c>
     </row>
     <row r="59">
@@ -2086,19 +2086,19 @@
         <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>6802.94</v>
+        <v>6767.26</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0937</v>
+        <v>0.0933</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8132</v>
+        <v>0.8188</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9324</v>
+        <v>0.9429</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9906</v>
+        <v>0.9904</v>
       </c>
     </row>
     <row r="64">
@@ -2164,13 +2164,13 @@
         <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>4892.84</v>
+        <v>4892.66</v>
       </c>
       <c r="E66" t="n">
         <v>0.6966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2289</v>
+        <v>0.229</v>
       </c>
       <c r="G66" t="n">
         <v>0.2844</v>
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>495688.84</v>
+        <v>497945.87</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6141</v>
+        <v>0.6152</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3016</v>
+        <v>0.3001</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3886</v>
+        <v>0.3868</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4938</v>
+        <v>0.4923</v>
       </c>
     </row>
     <row r="68">
@@ -2294,19 +2294,19 @@
         <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>382923.06</v>
+        <v>387043.73</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2156</v>
+        <v>0.2174</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7404</v>
+        <v>0.7387</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7956</v>
+        <v>0.7939</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8415</v>
+        <v>0.8404</v>
       </c>
     </row>
     <row r="72">
@@ -2372,19 +2372,19 @@
         <v>39</v>
       </c>
       <c r="D74" t="n">
-        <v>-145474.79</v>
+        <v>-144570.86</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.07</v>
+        <v>-2.756</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8439</v>
+        <v>0.7732</v>
       </c>
       <c r="G74" t="n">
-        <v>1.2132</v>
+        <v>1.0427</v>
       </c>
       <c r="H74" t="n">
-        <v>1.9842</v>
+        <v>1.9997</v>
       </c>
     </row>
     <row r="75">
@@ -2398,19 +2398,19 @@
         <v>39</v>
       </c>
       <c r="D75" t="n">
-        <v>31672.25</v>
+        <v>34655.48</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4005</v>
+        <v>0.3752</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5874</v>
+        <v>0.5877</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6016</v>
+        <v>0.6419</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6438</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="76">
@@ -2424,19 +2424,19 @@
         <v>39</v>
       </c>
       <c r="D76" t="n">
-        <v>-17018.95</v>
+        <v>-23371.39</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.384</v>
+        <v>-0.4659</v>
       </c>
       <c r="F76" t="n">
-        <v>1.3956</v>
+        <v>1.3884</v>
       </c>
       <c r="G76" t="n">
-        <v>1.4266</v>
+        <v>1.4472</v>
       </c>
       <c r="H76" t="n">
-        <v>1.4417</v>
+        <v>1.5232</v>
       </c>
     </row>
     <row r="77">
@@ -2450,19 +2450,19 @@
         <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>14332.06</v>
+        <v>19541.79</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4223</v>
+        <v>0.4989</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0185</v>
+        <v>0.0064</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4412</v>
+        <v>0.0534</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8711</v>
+        <v>0.6629</v>
       </c>
     </row>
     <row r="78">
@@ -2476,19 +2476,19 @@
         <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>15505.18</v>
+        <v>16188.16</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3361</v>
+        <v>0.3132</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6154</v>
+        <v>0.6327</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6553</v>
+        <v>0.6648</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6942</v>
+        <v>0.7477</v>
       </c>
     </row>
     <row r="79">
@@ -2502,19 +2502,19 @@
         <v>39</v>
       </c>
       <c r="D79" t="n">
-        <v>-891.66</v>
+        <v>-1110.7</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4178</v>
+        <v>-0.425</v>
       </c>
       <c r="F79" t="n">
-        <v>1.3034</v>
+        <v>1.2583</v>
       </c>
       <c r="G79" t="n">
         <v>1.5284</v>
       </c>
       <c r="H79" t="n">
-        <v>1.6078</v>
+        <v>1.6091</v>
       </c>
     </row>
     <row r="80">
@@ -2528,19 +2528,19 @@
         <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>2212.57</v>
+        <v>2981.06</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3168</v>
+        <v>0.3488</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6234</v>
+        <v>0.6204</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6886</v>
+        <v>0.6885</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7093</v>
+        <v>0.7071</v>
       </c>
     </row>
     <row r="81">
@@ -2554,19 +2554,19 @@
         <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>5151.91</v>
+        <v>6781.16</v>
       </c>
       <c r="E81" t="n">
-        <v>0.056</v>
+        <v>0.0626</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8974</v>
+        <v>0.895</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9358</v>
+        <v>0.9161</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9734</v>
+        <v>0.9728</v>
       </c>
     </row>
     <row r="82">
@@ -2580,19 +2580,19 @@
         <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>424223.26</v>
+        <v>518922.44</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2029</v>
+        <v>0.2359</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3592</v>
+        <v>0.2138</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8346</v>
+        <v>0.5736</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9578</v>
+        <v>0.8869</v>
       </c>
     </row>
     <row r="83">
@@ -2606,19 +2606,19 @@
         <v>39</v>
       </c>
       <c r="D83" t="n">
-        <v>1864.53</v>
+        <v>3079.84</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2827</v>
+        <v>0.3661</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4406</v>
+        <v>0.4018</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4539</v>
+        <v>0.4503</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9348</v>
+        <v>0.7265</v>
       </c>
     </row>
     <row r="84">
@@ -2632,19 +2632,19 @@
         <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>2293.22</v>
+        <v>2535.44</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1969</v>
+        <v>0.1807</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7711</v>
+        <v>0.7743</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7858</v>
+        <v>0.8001</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8251</v>
+        <v>0.8459</v>
       </c>
     </row>
     <row r="85">
@@ -2658,19 +2658,19 @@
         <v>39</v>
       </c>
       <c r="D85" t="n">
-        <v>-79074.05</v>
+        <v>-90307.04</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.0765</v>
+        <v>-0.0714</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9904</v>
+        <v>0.9945</v>
       </c>
       <c r="G85" t="n">
         <v>1.0793</v>
       </c>
       <c r="H85" t="n">
-        <v>1.163</v>
+        <v>1.1361</v>
       </c>
     </row>
     <row r="86">
@@ -2684,19 +2684,19 @@
         <v>39</v>
       </c>
       <c r="D86" t="n">
-        <v>34261.62</v>
+        <v>38465.01</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1558</v>
+        <v>0.1434</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8156</v>
+        <v>0.8226</v>
       </c>
       <c r="G86" t="n">
         <v>0.837</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8751</v>
+        <v>0.8788</v>
       </c>
     </row>
     <row r="87">
@@ -2710,19 +2710,19 @@
         <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>-3512.9</v>
+        <v>-3709.39</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.1706</v>
+        <v>-0.1442</v>
       </c>
       <c r="F87" t="n">
-        <v>1.091</v>
+        <v>1.057</v>
       </c>
       <c r="G87" t="n">
-        <v>1.1567</v>
+        <v>1.1317</v>
       </c>
       <c r="H87" t="n">
-        <v>1.32</v>
+        <v>1.2936</v>
       </c>
     </row>
     <row r="88">
@@ -2736,19 +2736,19 @@
         <v>39</v>
       </c>
       <c r="D88" t="n">
-        <v>260630.76</v>
+        <v>311585.49</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2233</v>
+        <v>0.2168</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7821</v>
+        <v>0.7343</v>
       </c>
       <c r="G88" t="n">
         <v>0.806</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8292</v>
+        <v>0.8878</v>
       </c>
     </row>
     <row r="89">
@@ -2762,19 +2762,19 @@
         <v>39</v>
       </c>
       <c r="D89" t="n">
-        <v>739.5</v>
+        <v>735.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7651</v>
+        <v>0.761</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2252</v>
+        <v>0.6126</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="90">
@@ -2788,19 +2788,19 @@
         <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>-80.12</v>
+        <v>70.36</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0417</v>
+        <v>0.0302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9488</v>
+        <v>0.908</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9943</v>
+        <v>0.9557</v>
       </c>
       <c r="H90" t="n">
-        <v>1.0985</v>
+        <v>1.0862</v>
       </c>
     </row>
     <row r="91">
@@ -2814,19 +2814,19 @@
         <v>39</v>
       </c>
       <c r="D91" t="n">
-        <v>171372.36</v>
+        <v>197187.1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6879</v>
+        <v>0.6876</v>
       </c>
       <c r="F91" t="n">
-        <v>0.254</v>
+        <v>0.2619</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2933</v>
+        <v>0.2934</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3704</v>
+        <v>0.3622</v>
       </c>
     </row>
     <row r="92">
@@ -2840,19 +2840,19 @@
         <v>39</v>
       </c>
       <c r="D92" t="n">
-        <v>32052.14</v>
+        <v>41006.33</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4713</v>
+        <v>0.5235</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1902</v>
+        <v>0.178</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3893</v>
+        <v>0.2829</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7908</v>
+        <v>0.6472</v>
       </c>
     </row>
     <row r="93">
@@ -2866,19 +2866,19 @@
         <v>39</v>
       </c>
       <c r="D93" t="n">
-        <v>12439.34</v>
+        <v>14613.01</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9392</v>
+        <v>0.9382</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0503</v>
+        <v>0.0512</v>
       </c>
       <c r="G93" t="n">
         <v>0.0863</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1415</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="94">
@@ -2892,19 +2892,19 @@
         <v>39</v>
       </c>
       <c r="D94" t="n">
-        <v>91285.23</v>
+        <v>103228.07</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7941</v>
+        <v>0.805</v>
       </c>
       <c r="F94" t="n">
-        <v>0.142</v>
+        <v>0.1023</v>
       </c>
       <c r="G94" t="n">
-        <v>0.264</v>
+        <v>0.2222</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2847</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="95">
@@ -2918,19 +2918,19 @@
         <v>39</v>
       </c>
       <c r="D95" t="n">
-        <v>90589.27</v>
+        <v>118459.7</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1548</v>
+        <v>0.1676</v>
       </c>
       <c r="F95" t="n">
-        <v>0.805</v>
+        <v>0.801</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8472</v>
+        <v>0.8227</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9008</v>
+        <v>0.8761</v>
       </c>
     </row>
     <row r="96">
@@ -2944,19 +2944,19 @@
         <v>39</v>
       </c>
       <c r="D96" t="n">
-        <v>53069.01</v>
+        <v>48127.62</v>
       </c>
       <c r="E96" t="n">
-        <v>0.085</v>
+        <v>0.0627</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8848</v>
+        <v>0.8873</v>
       </c>
       <c r="G96" t="n">
         <v>0.9013</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9516</v>
+        <v>0.9522</v>
       </c>
     </row>
     <row r="97">
@@ -2970,19 +2970,19 @@
         <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-524.91</v>
+        <v>-560.76</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.527</v>
+        <v>-0.5158</v>
       </c>
       <c r="F97" t="n">
-        <v>1.4015</v>
+        <v>1.3751</v>
       </c>
       <c r="G97" t="n">
-        <v>1.4775</v>
+        <v>1.4449</v>
       </c>
       <c r="H97" t="n">
-        <v>1.6287</v>
+        <v>1.6256</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Supplementary Appendix 4.xlsx
+++ b/outcome/appendix/Supplementary Appendix 4.xlsx
@@ -500,19 +500,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5544.48</v>
+        <v>6325.27</v>
       </c>
       <c r="E2" t="n">
-        <v>0.554</v>
+        <v>0.5863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4381</v>
+        <v>0.3962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4512</v>
+        <v>0.4084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4539</v>
+        <v>0.4252</v>
       </c>
     </row>
     <row r="3">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>12087.68</v>
+        <v>12086.7</v>
       </c>
       <c r="E3" t="n">
         <v>0.5151</v>
@@ -552,19 +552,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2439.96</v>
+        <v>2283.07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2668</v>
+        <v>0.254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6872</v>
+        <v>0.6941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7971</v>
+        <v>0.802</v>
       </c>
       <c r="H4" t="n">
-        <v>0.817</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="5">
@@ -578,19 +578,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>8038.9</v>
+        <v>3035.33</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9774</v>
+        <v>0.9423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0028</v>
+        <v>0.0079</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0047</v>
+        <v>0.0137</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0284</v>
+        <v>0.0682</v>
       </c>
     </row>
     <row r="6">
@@ -604,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4248.22</v>
+        <v>4283.65</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4538</v>
+        <v>0.4558</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4651</v>
+        <v>0.4634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5403</v>
+        <v>0.5385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6418</v>
+        <v>0.6396</v>
       </c>
     </row>
     <row r="7">
@@ -630,19 +630,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>515.94</v>
+        <v>857.62</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5175</v>
+        <v>0.6407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3392</v>
+        <v>0.247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3947</v>
+        <v>0.2679</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6171</v>
+        <v>0.4623</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1123.53</v>
+        <v>1119.66</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5731</v>
+        <v>0.5722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3232</v>
+        <v>0.3214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4041</v>
+        <v>0.4019</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5416</v>
+        <v>0.5471</v>
       </c>
     </row>
     <row r="9">
@@ -682,19 +682,19 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>11836.94</v>
+        <v>9904.11</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3912</v>
+        <v>0.3497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5423</v>
+        <v>0.5721</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5704</v>
+        <v>0.6131</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6511</v>
+        <v>0.7071</v>
       </c>
     </row>
     <row r="10">
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>259478.27</v>
+        <v>158792.31</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7624</v>
+        <v>0.6626</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1354</v>
+        <v>0.1998</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2389</v>
+        <v>0.3389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2924</v>
+        <v>0.3862</v>
       </c>
     </row>
     <row r="11">
@@ -734,19 +734,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1676.92</v>
+        <v>1691.74</v>
       </c>
       <c r="E11" t="n">
-        <v>0.508</v>
+        <v>0.5102</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3147</v>
+        <v>0.3146</v>
       </c>
       <c r="G11" t="n">
-        <v>0.442</v>
+        <v>0.4396</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6784</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>1863.56</v>
+        <v>1866.91</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5081</v>
+        <v>0.5086</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4452</v>
+        <v>0.4428</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4712</v>
+        <v>0.4692</v>
       </c>
       <c r="H12" t="n">
-        <v>0.527</v>
+        <v>0.5282</v>
       </c>
     </row>
     <row r="13">
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>31401.2</v>
+        <v>31401.22</v>
       </c>
       <c r="E14" t="n">
         <v>0.4467</v>
@@ -838,19 +838,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2266.35</v>
+        <v>2323.2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3581</v>
+        <v>0.3638</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5411</v>
+        <v>0.5396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5855</v>
+        <v>0.5831</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7263</v>
+        <v>0.7155</v>
       </c>
     </row>
     <row r="16">
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>292645.87</v>
+        <v>292645.86</v>
       </c>
       <c r="E16" t="n">
         <v>0.7042</v>
@@ -890,19 +890,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NUM!</v>
+        <v>32.79</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8039</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>0.164</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0.225</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>0.4913</v>
       </c>
     </row>
     <row r="18">
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>348.27</v>
+        <v>477.89</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5356</v>
+        <v>0.6128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3831</v>
+        <v>0.3122</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4128</v>
+        <v>0.3338</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5097</v>
+        <v>0.4299</v>
       </c>
     </row>
     <row r="19">
@@ -942,19 +942,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>62749.52</v>
+        <v>63367.26</v>
       </c>
       <c r="E19" t="n">
-        <v>0.808</v>
+        <v>0.8095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1174</v>
+        <v>0.1167</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1382</v>
+        <v>0.1378</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2409</v>
+        <v>0.2387</v>
       </c>
     </row>
     <row r="20">
@@ -968,19 +968,19 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>6307.22</v>
+        <v>6318.42</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5926</v>
+        <v>0.593</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3134</v>
+        <v>0.3131</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3597</v>
+        <v>0.3593</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4688</v>
+        <v>0.4683</v>
       </c>
     </row>
     <row r="21">
@@ -994,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>1960.08</v>
+        <v>2127875.24</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8942</v>
+        <v>0.9999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0716</v>
+        <v>0.0001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0843</v>
+        <v>0.0001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1376</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="22">
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>42103.14</v>
+        <v>42104.79</v>
       </c>
       <c r="E22" t="n">
         <v>0.9294</v>
@@ -1032,7 +1032,7 @@
         <v>0.0559</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0938</v>
+        <v>0.0937</v>
       </c>
     </row>
     <row r="23">
@@ -1046,19 +1046,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>90481.9</v>
+        <v>95685.51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5063</v>
+        <v>0.5203</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4516</v>
+        <v>0.4396</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4987</v>
+        <v>0.4824</v>
       </c>
       <c r="H23" t="n">
-        <v>0.538</v>
+        <v>0.5202</v>
       </c>
     </row>
     <row r="24">
@@ -1098,19 +1098,19 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>70.69</v>
+        <v>30.77</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2765</v>
+        <v>0.1426</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5509</v>
+        <v>0.6522</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5828</v>
+        <v>0.7644</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7447</v>
+        <v>0.9353</v>
       </c>
     </row>
     <row r="26">
@@ -1124,19 +1124,19 @@
         <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>1440.08</v>
+        <v>2075.42</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1983</v>
+        <v>0.2628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7701</v>
+        <v>0.7026</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8731</v>
+        <v>0.8166</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8951</v>
+        <v>0.8481</v>
       </c>
     </row>
     <row r="27">
@@ -1150,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="D27" t="n">
-        <v>4220</v>
+        <v>4219.85</v>
       </c>
       <c r="E27" t="n">
         <v>0.3032</v>
@@ -1176,19 +1176,19 @@
         <v>37</v>
       </c>
       <c r="D28" t="n">
-        <v>2892.7</v>
+        <v>2829.55</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2958</v>
+        <v>0.2912</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5591</v>
+        <v>0.5626</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7618</v>
+        <v>0.7652</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8596</v>
+        <v>0.8644</v>
       </c>
     </row>
     <row r="29">
@@ -1202,19 +1202,19 @@
         <v>37</v>
       </c>
       <c r="D29" t="n">
-        <v>3938.46</v>
+        <v>1862.49</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9743</v>
+        <v>0.9471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0113</v>
+        <v>0.0266</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0115</v>
+        <v>0.0268</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0441</v>
+        <v>0.0685</v>
       </c>
     </row>
     <row r="30">
@@ -1228,19 +1228,19 @@
         <v>37</v>
       </c>
       <c r="D30" t="n">
-        <v>2237.21</v>
+        <v>2230.02</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2162</v>
+        <v>0.2156</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6725</v>
+        <v>0.673</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7358</v>
+        <v>0.7368</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8723</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="31">
@@ -1254,19 +1254,19 @@
         <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>458.84</v>
+        <v>441.76</v>
       </c>
       <c r="E31" t="n">
-        <v>0.423</v>
+        <v>0.4137</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4599</v>
+        <v>0.4585</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5459</v>
+        <v>0.5729</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6468</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="32">
@@ -1280,19 +1280,19 @@
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>716.43</v>
+        <v>725.72</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3668</v>
+        <v>0.3698</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5931</v>
+        <v>0.59</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6002</v>
+        <v>0.6054</v>
       </c>
       <c r="H32" t="n">
-        <v>0.651</v>
+        <v>0.6526</v>
       </c>
     </row>
     <row r="33">
@@ -1306,19 +1306,19 @@
         <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>9602.91</v>
+        <v>9843.71</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3687</v>
+        <v>0.3745</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4919</v>
+        <v>0.4843</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5042</v>
+        <v>0.5082</v>
       </c>
       <c r="H33" t="n">
-        <v>0.689</v>
+        <v>0.6906</v>
       </c>
     </row>
     <row r="34">
@@ -1332,19 +1332,19 @@
         <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>80394.28</v>
+        <v>61407.07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6998</v>
+        <v>0.6404</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0927</v>
+        <v>0.1271</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1267</v>
+        <v>0.1895</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4162</v>
+        <v>0.5075</v>
       </c>
     </row>
     <row r="35">
@@ -1358,19 +1358,19 @@
         <v>37</v>
       </c>
       <c r="D35" t="n">
-        <v>1212.06</v>
+        <v>1206.91</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4484</v>
+        <v>0.4473</v>
       </c>
       <c r="F35" t="n">
-        <v>0.524</v>
+        <v>0.523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5783</v>
+        <v>0.5767</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5852</v>
+        <v>0.5864</v>
       </c>
     </row>
     <row r="36">
@@ -1384,19 +1384,19 @@
         <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>-506.77</v>
+        <v>-534.05</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.142</v>
+        <v>-0.1508</v>
       </c>
       <c r="F36" t="n">
-        <v>1.111</v>
+        <v>1.1201</v>
       </c>
       <c r="G36" t="n">
-        <v>1.1204</v>
+        <v>1.1406</v>
       </c>
       <c r="H36" t="n">
-        <v>1.1663</v>
+        <v>1.1794</v>
       </c>
     </row>
     <row r="37">
@@ -1436,7 +1436,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>23213.77</v>
+        <v>23213.78</v>
       </c>
       <c r="E38" t="n">
         <v>0.3502</v>
@@ -1462,19 +1462,19 @@
         <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>3556.36</v>
+        <v>3547.31</v>
       </c>
       <c r="E39" t="n">
-        <v>0.452</v>
+        <v>0.4514</v>
       </c>
       <c r="F39" t="n">
-        <v>0.481</v>
+        <v>0.4823</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5169</v>
+        <v>0.5182</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6054</v>
+        <v>0.6052</v>
       </c>
     </row>
     <row r="40">
@@ -1514,19 +1514,19 @@
         <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#NUM!</v>
+        <v>2.81</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3189</v>
       </c>
       <c r="F41" t="n">
-        <v>2.5</v>
+        <v>0.5241</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>0.6061</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="42">
@@ -1540,19 +1540,19 @@
         <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>153</v>
+        <v>101.92</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2128</v>
+        <v>0.1526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4945</v>
+        <v>0.524</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5095</v>
+        <v>0.5587</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8808</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="43">
@@ -1566,19 +1566,19 @@
         <v>37</v>
       </c>
       <c r="D43" t="n">
-        <v>25558.82</v>
+        <v>25530.09</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4503</v>
+        <v>0.45</v>
       </c>
       <c r="F43" t="n">
-        <v>0.452</v>
+        <v>0.4542</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5794</v>
+        <v>0.5836</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6421</v>
+        <v>0.6428</v>
       </c>
     </row>
     <row r="44">
@@ -1592,19 +1592,19 @@
         <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>2744.79</v>
+        <v>2744.74</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4993</v>
+        <v>0.4992</v>
       </c>
       <c r="F44" t="n">
         <v>0.4027</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4677</v>
+        <v>0.4678</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6634</v>
+        <v>0.6635</v>
       </c>
     </row>
     <row r="45">
@@ -1618,19 +1618,19 @@
         <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>1199.44</v>
+        <v>19712.11</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4134</v>
+        <v>0.9205</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3309</v>
+        <v>0.0584</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5434</v>
+        <v>0.104</v>
       </c>
       <c r="H45" t="n">
-        <v>1.1711</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="46">
@@ -1644,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>11460.96</v>
+        <v>11459.93</v>
       </c>
       <c r="E46" t="n">
         <v>0.6084</v>
@@ -1670,19 +1670,19 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>40388.8</v>
+        <v>42671.66</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2831</v>
+        <v>0.2944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6356</v>
+        <v>0.6248</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7484</v>
+        <v>0.7502</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7994</v>
+        <v>0.7958</v>
       </c>
     </row>
     <row r="48">
@@ -1722,19 +1722,19 @@
         <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>19.49</v>
+        <v>5.83</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1313</v>
+        <v>0.0432</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7853</v>
+        <v>0.9232</v>
       </c>
       <c r="G49" t="n">
-        <v>1.0285</v>
+        <v>1.3798</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0697</v>
+        <v>1.3888</v>
       </c>
     </row>
     <row r="50">
@@ -1748,19 +1748,19 @@
         <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>61911.41</v>
+        <v>69950.52</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4553</v>
+        <v>0.4857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4419</v>
+        <v>0.4335</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5578</v>
+        <v>0.5169</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7371</v>
+        <v>0.6555</v>
       </c>
     </row>
     <row r="51">
@@ -1774,10 +1774,10 @@
         <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>56910.51</v>
+        <v>56903.92</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2665</v>
+        <v>0.2664</v>
       </c>
       <c r="F51" t="n">
         <v>0.6621</v>
@@ -1786,7 +1786,7 @@
         <v>0.7436</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8195</v>
+        <v>0.8196</v>
       </c>
     </row>
     <row r="52">
@@ -1800,19 +1800,19 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>-38409.54</v>
+        <v>-40091.7</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2666</v>
+        <v>-0.2816</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0919</v>
+        <v>1.1411</v>
       </c>
       <c r="G52" t="n">
-        <v>1.3069</v>
+        <v>1.2548</v>
       </c>
       <c r="H52" t="n">
-        <v>1.4935</v>
+        <v>1.5084</v>
       </c>
     </row>
     <row r="53">
@@ -1826,19 +1826,19 @@
         <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>89040.69</v>
+        <v>43407.18</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9873</v>
+        <v>0.9744</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0011</v>
+        <v>0.0027</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0019</v>
+        <v>0.0051</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0053</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="54">
@@ -1852,19 +1852,19 @@
         <v>38</v>
       </c>
       <c r="D54" t="n">
-        <v>44565.94</v>
+        <v>44941.3</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2502</v>
+        <v>0.2518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6826</v>
+        <v>0.6803</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7823</v>
+        <v>0.7822</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8452</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="55">
@@ -1878,19 +1878,19 @@
         <v>38</v>
       </c>
       <c r="D55" t="n">
-        <v>377.34</v>
+        <v>2523.4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0406</v>
+        <v>0.2204</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8875</v>
+        <v>0.7125</v>
       </c>
       <c r="G55" t="n">
-        <v>1.003</v>
+        <v>0.7768</v>
       </c>
       <c r="H55" t="n">
-        <v>1.04</v>
+        <v>0.9039</v>
       </c>
     </row>
     <row r="56">
@@ -1904,19 +1904,19 @@
         <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>6529.11</v>
+        <v>6536.25</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2567</v>
+        <v>0.2569</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6532</v>
+        <v>0.6617</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7706</v>
+        <v>0.7845</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8415</v>
+        <v>0.8468</v>
       </c>
     </row>
     <row r="57">
@@ -1930,19 +1930,19 @@
         <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>4893.26</v>
+        <v>-10905.35</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0158</v>
+        <v>-0.037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8752</v>
+        <v>0.9174</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0261</v>
+        <v>1.0333</v>
       </c>
       <c r="H57" t="n">
-        <v>1.0796</v>
+        <v>1.1487</v>
       </c>
     </row>
     <row r="58">
@@ -1956,19 +1956,19 @@
         <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>2644463.3</v>
+        <v>2392816.35</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4909</v>
+        <v>0.466</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2824</v>
+        <v>0.3518</v>
       </c>
       <c r="G58" t="n">
-        <v>0.512</v>
+        <v>0.6796</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7804</v>
+        <v>0.9418</v>
       </c>
     </row>
     <row r="59">
@@ -1982,19 +1982,19 @@
         <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>4179.06</v>
+        <v>4316.85</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1693</v>
+        <v>0.174</v>
       </c>
       <c r="F59" t="n">
-        <v>0.493</v>
+        <v>0.4908</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7004</v>
+        <v>0.6978</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8563</v>
+        <v>0.8545</v>
       </c>
     </row>
     <row r="60">
@@ -2008,19 +2008,19 @@
         <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>6550.41</v>
+        <v>5909.63</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1644</v>
+        <v>0.1507</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7758</v>
+        <v>0.7868</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8344</v>
+        <v>0.8485</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9123</v>
+        <v>0.9159</v>
       </c>
     </row>
     <row r="61">
@@ -2060,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>88701</v>
+        <v>88701.17</v>
       </c>
       <c r="E62" t="n">
         <v>0.1248</v>
@@ -2086,19 +2086,19 @@
         <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>6767.26</v>
+        <v>7008.27</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0933</v>
+        <v>0.0963</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8188</v>
+        <v>0.8028</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9429</v>
+        <v>0.9442</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9904</v>
+        <v>0.9915</v>
       </c>
     </row>
     <row r="64">
@@ -2112,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>675490.83</v>
+        <v>675490.78</v>
       </c>
       <c r="E64" t="n">
         <v>0.18</v>
@@ -2138,19 +2138,19 @@
         <v>38</v>
       </c>
       <c r="D65" t="n">
-        <v>2685.71</v>
+        <v>1610.68</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7842</v>
+        <v>0.6855</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2885</v>
+        <v>0.23</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.4101</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>0.7652</v>
       </c>
     </row>
     <row r="66">
@@ -2164,19 +2164,19 @@
         <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>4892.66</v>
+        <v>5923.47</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6966</v>
+        <v>0.7354</v>
       </c>
       <c r="F66" t="n">
-        <v>0.229</v>
+        <v>0.1957</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2844</v>
+        <v>0.2587</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3646</v>
+        <v>0.3352</v>
       </c>
     </row>
     <row r="67">
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>497945.87</v>
+        <v>495832.21</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6152</v>
+        <v>0.6142</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3001</v>
+        <v>0.3012</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3868</v>
+        <v>0.3855</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4923</v>
+        <v>0.4905</v>
       </c>
     </row>
     <row r="68">
@@ -2216,19 +2216,19 @@
         <v>38</v>
       </c>
       <c r="D68" t="n">
-        <v>78411.53</v>
+        <v>78563.15</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6216</v>
+        <v>0.622</v>
       </c>
       <c r="F68" t="n">
         <v>0.102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.18</v>
+        <v>0.1796</v>
       </c>
       <c r="H68" t="n">
-        <v>0.604</v>
+        <v>0.6028</v>
       </c>
     </row>
     <row r="69">
@@ -2242,19 +2242,19 @@
         <v>38</v>
       </c>
       <c r="D69" t="n">
-        <v>39902.29</v>
+        <v>1432515537.32</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9184</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0538</v>
+        <v>0.0004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.096</v>
+        <v>0.0011</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1861</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="70">
@@ -2268,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="D70" t="n">
-        <v>231419.25</v>
+        <v>231419.74</v>
       </c>
       <c r="E70" t="n">
         <v>0.8007</v>
@@ -2294,19 +2294,19 @@
         <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>387043.73</v>
+        <v>408940.28</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2174</v>
+        <v>0.2269</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7387</v>
+        <v>0.7175</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7939</v>
+        <v>0.7738</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8404</v>
+        <v>0.8344</v>
       </c>
     </row>
     <row r="72">
@@ -2346,19 +2346,19 @@
         <v>38</v>
       </c>
       <c r="D73" t="n">
-        <v>-500.11</v>
+        <v>-552.49</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.162</v>
+        <v>-0.1821</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0088</v>
+        <v>1.0372</v>
       </c>
       <c r="G73" t="n">
-        <v>1.0718</v>
+        <v>1.1703</v>
       </c>
       <c r="H73" t="n">
-        <v>1.3318</v>
+        <v>1.3718</v>
       </c>
     </row>
     <row r="74">
@@ -2372,19 +2372,19 @@
         <v>39</v>
       </c>
       <c r="D74" t="n">
-        <v>-144570.86</v>
+        <v>-133865.4</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.756</v>
+        <v>-2.1194</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7732</v>
+        <v>0.5801</v>
       </c>
       <c r="G74" t="n">
-        <v>1.0427</v>
+        <v>0.905</v>
       </c>
       <c r="H74" t="n">
-        <v>1.9997</v>
+        <v>1.727</v>
       </c>
     </row>
     <row r="75">
@@ -2398,10 +2398,10 @@
         <v>39</v>
       </c>
       <c r="D75" t="n">
-        <v>34655.48</v>
+        <v>34650.41</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3752</v>
+        <v>0.3751</v>
       </c>
       <c r="F75" t="n">
         <v>0.5877</v>
@@ -2424,19 +2424,19 @@
         <v>39</v>
       </c>
       <c r="D76" t="n">
-        <v>-23371.39</v>
+        <v>-22120.23</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4659</v>
+        <v>-0.4302</v>
       </c>
       <c r="F76" t="n">
-        <v>1.3884</v>
+        <v>1.3454</v>
       </c>
       <c r="G76" t="n">
-        <v>1.4472</v>
+        <v>1.4132</v>
       </c>
       <c r="H76" t="n">
-        <v>1.5232</v>
+        <v>1.4623</v>
       </c>
     </row>
     <row r="77">
@@ -2450,19 +2450,19 @@
         <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>19541.79</v>
+        <v>-2086.52</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4989</v>
+        <v>-0.119</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0064</v>
+        <v>0.0181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0534</v>
+        <v>0.1608</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6629</v>
+        <v>1.3633</v>
       </c>
     </row>
     <row r="78">
@@ -2476,19 +2476,19 @@
         <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>16188.16</v>
+        <v>16455.35</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3132</v>
+        <v>0.3167</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6327</v>
+        <v>0.6295</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6648</v>
+        <v>0.6607</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7477</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="79">
@@ -2502,19 +2502,19 @@
         <v>39</v>
       </c>
       <c r="D79" t="n">
-        <v>-1110.7</v>
+        <v>407.24</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.425</v>
+        <v>0.0986</v>
       </c>
       <c r="F79" t="n">
-        <v>1.2583</v>
+        <v>0.8628</v>
       </c>
       <c r="G79" t="n">
-        <v>1.5284</v>
+        <v>0.9137</v>
       </c>
       <c r="H79" t="n">
-        <v>1.6091</v>
+        <v>0.9845</v>
       </c>
     </row>
     <row r="80">
@@ -2528,19 +2528,19 @@
         <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>2981.06</v>
+        <v>2928.71</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3488</v>
+        <v>0.3448</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6204</v>
+        <v>0.6171</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6885</v>
+        <v>0.669</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7071</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="81">
@@ -2554,19 +2554,19 @@
         <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>6781.16</v>
+        <v>1696.63</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0626</v>
+        <v>0.0164</v>
       </c>
       <c r="F81" t="n">
-        <v>0.895</v>
+        <v>0.9127</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9161</v>
+        <v>0.9623</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9728</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="82">
@@ -2580,19 +2580,19 @@
         <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>518922.44</v>
+        <v>-21818.01</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2359</v>
+        <v>-0.0132</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2138</v>
+        <v>0.2977</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5736</v>
+        <v>0.8282</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8869</v>
+        <v>1.2283</v>
       </c>
     </row>
     <row r="83">
@@ -2606,19 +2606,19 @@
         <v>39</v>
       </c>
       <c r="D83" t="n">
-        <v>3079.84</v>
+        <v>3146.74</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3661</v>
+        <v>0.3711</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4018</v>
+        <v>0.3987</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4503</v>
+        <v>0.4445</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7265</v>
+        <v>0.7137</v>
       </c>
     </row>
     <row r="84">
@@ -2632,19 +2632,19 @@
         <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>2535.44</v>
+        <v>2328.82</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1807</v>
+        <v>0.1685</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7743</v>
+        <v>0.7887</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8001</v>
+        <v>0.815</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8459</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="85">
@@ -2684,7 +2684,7 @@
         <v>39</v>
       </c>
       <c r="D86" t="n">
-        <v>38465.01</v>
+        <v>38465.14</v>
       </c>
       <c r="E86" t="n">
         <v>0.1434</v>
@@ -2710,19 +2710,19 @@
         <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>-3709.39</v>
+        <v>-3652.38</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.1442</v>
+        <v>-0.1417</v>
       </c>
       <c r="F87" t="n">
-        <v>1.057</v>
+        <v>1.0733</v>
       </c>
       <c r="G87" t="n">
-        <v>1.1317</v>
+        <v>1.1046</v>
       </c>
       <c r="H87" t="n">
-        <v>1.2936</v>
+        <v>1.2656</v>
       </c>
     </row>
     <row r="88">
@@ -2736,7 +2736,7 @@
         <v>39</v>
       </c>
       <c r="D88" t="n">
-        <v>311585.49</v>
+        <v>311585.47</v>
       </c>
       <c r="E88" t="n">
         <v>0.2168</v>
@@ -2762,19 +2762,19 @@
         <v>39</v>
       </c>
       <c r="D89" t="n">
-        <v>735.5</v>
+        <v>561.29</v>
       </c>
       <c r="E89" t="n">
-        <v>0.761</v>
+        <v>0.7084</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6126</v>
+        <v>0.2306</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0.3588</v>
       </c>
       <c r="H89" t="n">
-        <v>4.5</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="90">
@@ -2788,19 +2788,19 @@
         <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>70.36</v>
+        <v>1141.17</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0302</v>
+        <v>0.3358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.908</v>
+        <v>0.6253</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9557</v>
+        <v>0.653</v>
       </c>
       <c r="H90" t="n">
-        <v>1.0862</v>
+        <v>0.6838</v>
       </c>
     </row>
     <row r="91">
@@ -2814,19 +2814,19 @@
         <v>39</v>
       </c>
       <c r="D91" t="n">
-        <v>197187.1</v>
+        <v>197745.72</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6876</v>
+        <v>0.6882</v>
       </c>
       <c r="F91" t="n">
         <v>0.2619</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2934</v>
+        <v>0.2927</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3622</v>
+        <v>0.3601</v>
       </c>
     </row>
     <row r="92">
@@ -2840,19 +2840,19 @@
         <v>39</v>
       </c>
       <c r="D92" t="n">
-        <v>41006.33</v>
+        <v>41227.58</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5235</v>
+        <v>0.5249</v>
       </c>
       <c r="F92" t="n">
-        <v>0.178</v>
+        <v>0.1775</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2829</v>
+        <v>0.2819</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6472</v>
+        <v>0.6456</v>
       </c>
     </row>
     <row r="93">
@@ -2865,20 +2865,16 @@
       <c r="C93" t="s">
         <v>39</v>
       </c>
-      <c r="D93" t="n">
-        <v>14613.01</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.9382</v>
-      </c>
+      <c r="D93"/>
+      <c r="E93"/>
       <c r="F93" t="n">
-        <v>0.0512</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0863</v>
+        <v>0.0001</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1364</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="94">
@@ -2892,7 +2888,7 @@
         <v>39</v>
       </c>
       <c r="D94" t="n">
-        <v>103228.07</v>
+        <v>103231.48</v>
       </c>
       <c r="E94" t="n">
         <v>0.805</v>
@@ -2904,7 +2900,7 @@
         <v>0.2222</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2779</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="95">
@@ -2918,19 +2914,19 @@
         <v>39</v>
       </c>
       <c r="D95" t="n">
-        <v>118459.7</v>
+        <v>145750.62</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1676</v>
+        <v>0.1986</v>
       </c>
       <c r="F95" t="n">
-        <v>0.801</v>
+        <v>0.7712</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8227</v>
+        <v>0.7819</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8761</v>
+        <v>0.8404</v>
       </c>
     </row>
     <row r="96">
@@ -2970,19 +2966,19 @@
         <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-560.76</v>
+        <v>-570.52</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5158</v>
+        <v>-0.5295</v>
       </c>
       <c r="F97" t="n">
-        <v>1.3751</v>
+        <v>1.2839</v>
       </c>
       <c r="G97" t="n">
-        <v>1.4449</v>
+        <v>1.5844</v>
       </c>
       <c r="H97" t="n">
-        <v>1.6256</v>
+        <v>1.709</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Supplementary Appendix 4.xlsx
+++ b/outcome/appendix/Supplementary Appendix 4.xlsx
@@ -500,19 +500,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>6325.27</v>
+        <v>7297.52</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5863</v>
+        <v>0.6205</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3962</v>
+        <v>0.369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4084</v>
+        <v>0.3799</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4252</v>
+        <v>0.3874</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +526,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>12086.7</v>
+        <v>12087.58</v>
       </c>
       <c r="E3" t="n">
         <v>0.5151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4197</v>
+        <v>0.4196</v>
       </c>
       <c r="G3" t="n">
         <v>0.4859</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5206</v>
+        <v>0.5205</v>
       </c>
     </row>
     <row r="4">
@@ -552,19 +552,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2283.07</v>
+        <v>2762.44</v>
       </c>
       <c r="E4" t="n">
-        <v>0.254</v>
+        <v>0.2917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6941</v>
+        <v>0.669</v>
       </c>
       <c r="G4" t="n">
-        <v>0.802</v>
+        <v>0.7895</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8333</v>
+        <v>0.7947</v>
       </c>
     </row>
     <row r="5">
@@ -578,19 +578,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>3035.33</v>
+        <v>7843.85</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9423</v>
+        <v>0.9768</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0079</v>
+        <v>0.0065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0137</v>
+        <v>0.011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0682</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6">
@@ -604,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4283.65</v>
+        <v>4213.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4558</v>
+        <v>0.4517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4634</v>
+        <v>0.4666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5385</v>
+        <v>0.5421</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6396</v>
+        <v>0.6444</v>
       </c>
     </row>
     <row r="7">
@@ -630,19 +630,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>857.62</v>
+        <v>515.94</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6407</v>
+        <v>0.5175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.247</v>
+        <v>0.3375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2679</v>
+        <v>0.3933</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4623</v>
+        <v>0.6161</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1119.66</v>
+        <v>1122.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5722</v>
+        <v>0.5729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3214</v>
+        <v>0.3217</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4019</v>
+        <v>0.4024</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5471</v>
+        <v>0.5424</v>
       </c>
     </row>
     <row r="9">
@@ -682,19 +682,19 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>9904.11</v>
+        <v>11836.94</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3497</v>
+        <v>0.3912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5721</v>
+        <v>0.5423</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6131</v>
+        <v>0.5704</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7071</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="10">
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>158792.31</v>
+        <v>243311.73</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6626</v>
+        <v>0.7506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1998</v>
+        <v>0.1424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3389</v>
+        <v>0.2483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3862</v>
+        <v>0.2996</v>
       </c>
     </row>
     <row r="11">
@@ -734,19 +734,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1691.74</v>
+        <v>1735.17</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5102</v>
+        <v>0.5165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3146</v>
+        <v>0.3113</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4396</v>
+        <v>0.4348</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6672</v>
+        <v>0.6539</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>1866.91</v>
+        <v>1865.29</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5086</v>
+        <v>0.5084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4428</v>
+        <v>0.4442</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4692</v>
+        <v>0.4705</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5282</v>
+        <v>0.5268</v>
       </c>
     </row>
     <row r="13">
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>31401.22</v>
+        <v>31401.2</v>
       </c>
       <c r="E14" t="n">
         <v>0.4467</v>
@@ -838,19 +838,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>2323.2</v>
+        <v>2205.54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3638</v>
+        <v>0.3518</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5396</v>
+        <v>0.5467</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5831</v>
+        <v>0.5945</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7155</v>
+        <v>0.7349</v>
       </c>
     </row>
     <row r="16">
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>292645.86</v>
+        <v>292645.87</v>
       </c>
       <c r="E16" t="n">
         <v>0.7042</v>
@@ -890,19 +890,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>32.79</v>
+        <v>20.89</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8039</v>
+        <v>0.7232</v>
       </c>
       <c r="F17" t="n">
-        <v>0.164</v>
+        <v>0.1826</v>
       </c>
       <c r="G17" t="n">
-        <v>0.225</v>
+        <v>0.2767</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4913</v>
+        <v>0.5071</v>
       </c>
     </row>
     <row r="18">
@@ -916,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>477.89</v>
+        <v>346.33</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6128</v>
+        <v>0.5342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3122</v>
+        <v>0.3818</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3338</v>
+        <v>0.4105</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4299</v>
+        <v>0.5082</v>
       </c>
     </row>
     <row r="19">
@@ -942,19 +942,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>63367.26</v>
+        <v>62283.88</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8095</v>
+        <v>0.8068</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1167</v>
+        <v>0.1181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1378</v>
+        <v>0.139</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2387</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="20">
@@ -968,19 +968,19 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>6318.42</v>
+        <v>6308.34</v>
       </c>
       <c r="E20" t="n">
-        <v>0.593</v>
+        <v>0.5926</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3131</v>
+        <v>0.3132</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3593</v>
+        <v>0.3595</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4683</v>
+        <v>0.4687</v>
       </c>
     </row>
     <row r="21">
@@ -994,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>2127875.24</v>
+        <v>4963.53</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999</v>
+        <v>0.9553</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0001</v>
+        <v>0.0293</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001</v>
+        <v>0.0341</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0003</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="22">
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>42104.79</v>
+        <v>42103.38</v>
       </c>
       <c r="E22" t="n">
         <v>0.9294</v>
@@ -1098,19 +1098,19 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>30.77</v>
+        <v>64.23</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1426</v>
+        <v>0.2577</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6522</v>
+        <v>0.4595</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7644</v>
+        <v>0.4856</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9353</v>
+        <v>0.8302</v>
       </c>
     </row>
     <row r="26">
@@ -1124,19 +1124,19 @@
         <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>2075.42</v>
+        <v>1885.33</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2628</v>
+        <v>0.2446</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7026</v>
+        <v>0.7221</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8166</v>
+        <v>0.8354</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8481</v>
+        <v>0.8628</v>
       </c>
     </row>
     <row r="27">
@@ -1150,19 +1150,19 @@
         <v>37</v>
       </c>
       <c r="D27" t="n">
-        <v>4219.85</v>
+        <v>4219.98</v>
       </c>
       <c r="E27" t="n">
         <v>0.3032</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6468</v>
+        <v>0.6467</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7241</v>
+        <v>0.724</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7399</v>
+        <v>0.7398</v>
       </c>
     </row>
     <row r="28">
@@ -1176,19 +1176,19 @@
         <v>37</v>
       </c>
       <c r="D28" t="n">
-        <v>2829.55</v>
+        <v>2947.16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2912</v>
+        <v>0.2997</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5626</v>
+        <v>0.5563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7652</v>
+        <v>0.7591</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8644</v>
+        <v>0.8548</v>
       </c>
     </row>
     <row r="29">
@@ -1202,19 +1202,19 @@
         <v>37</v>
       </c>
       <c r="D29" t="n">
-        <v>1862.49</v>
+        <v>244.92</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9471</v>
+        <v>0.7019</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0266</v>
+        <v>0.23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0268</v>
+        <v>0.2768</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0685</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="30">
@@ -1228,19 +1228,19 @@
         <v>37</v>
       </c>
       <c r="D30" t="n">
-        <v>2230.02</v>
+        <v>2227.08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2156</v>
+        <v>0.2154</v>
       </c>
       <c r="F30" t="n">
-        <v>0.673</v>
+        <v>0.6729</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7368</v>
+        <v>0.7365</v>
       </c>
       <c r="H30" t="n">
-        <v>0.873</v>
+        <v>0.8734</v>
       </c>
     </row>
     <row r="31">
@@ -1254,19 +1254,19 @@
         <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>441.76</v>
+        <v>458.84</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4137</v>
+        <v>0.423</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4585</v>
+        <v>0.4583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5729</v>
+        <v>0.545</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6774</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="32">
@@ -1280,19 +1280,19 @@
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>725.72</v>
+        <v>717.37</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3698</v>
+        <v>0.3671</v>
       </c>
       <c r="F32" t="n">
-        <v>0.59</v>
+        <v>0.5922</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6054</v>
+        <v>0.5989</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6526</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="33">
@@ -1306,19 +1306,19 @@
         <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>9843.71</v>
+        <v>9602.91</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3745</v>
+        <v>0.3687</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4843</v>
+        <v>0.4918</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5082</v>
+        <v>0.5042</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6906</v>
+        <v>0.6889</v>
       </c>
     </row>
     <row r="34">
@@ -1332,19 +1332,19 @@
         <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>61407.07</v>
+        <v>82279.42</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6404</v>
+        <v>0.7046</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1271</v>
+        <v>0.0895</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1895</v>
+        <v>0.1203</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5075</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="35">
@@ -1358,19 +1358,19 @@
         <v>37</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.91</v>
+        <v>1200.04</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4473</v>
+        <v>0.4459</v>
       </c>
       <c r="F35" t="n">
-        <v>0.523</v>
+        <v>0.5254</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5767</v>
+        <v>0.5801</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5864</v>
+        <v>0.5875</v>
       </c>
     </row>
     <row r="36">
@@ -1384,19 +1384,19 @@
         <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>-534.05</v>
+        <v>-522.24</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1508</v>
+        <v>-0.147</v>
       </c>
       <c r="F36" t="n">
-        <v>1.1201</v>
+        <v>1.1163</v>
       </c>
       <c r="G36" t="n">
-        <v>1.1406</v>
+        <v>1.1308</v>
       </c>
       <c r="H36" t="n">
-        <v>1.1794</v>
+        <v>1.1733</v>
       </c>
     </row>
     <row r="37">
@@ -1436,7 +1436,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>23213.78</v>
+        <v>23213.77</v>
       </c>
       <c r="E38" t="n">
         <v>0.3502</v>
@@ -1462,19 +1462,19 @@
         <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>3547.31</v>
+        <v>3601.42</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4514</v>
+        <v>0.4551</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4823</v>
+        <v>0.4813</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5182</v>
+        <v>0.5191</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6052</v>
+        <v>0.5988</v>
       </c>
     </row>
     <row r="40">
@@ -1497,7 +1497,7 @@
         <v>0.3989</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4286</v>
+        <v>0.4285</v>
       </c>
       <c r="H40" t="n">
         <v>0.6549</v>
@@ -1514,19 +1514,19 @@
         <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>2.81</v>
+        <v>4.57</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3189</v>
+        <v>0.4322</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5241</v>
+        <v>0.2614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6061</v>
+        <v>0.4618</v>
       </c>
       <c r="H41" t="n">
-        <v>0.981</v>
+        <v>0.8458</v>
       </c>
     </row>
     <row r="42">
@@ -1540,19 +1540,19 @@
         <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>101.92</v>
+        <v>150.58</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1526</v>
+        <v>0.2101</v>
       </c>
       <c r="F42" t="n">
-        <v>0.524</v>
+        <v>0.4954</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5587</v>
+        <v>0.5103</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9675</v>
+        <v>0.8811</v>
       </c>
     </row>
     <row r="43">
@@ -1566,19 +1566,19 @@
         <v>37</v>
       </c>
       <c r="D43" t="n">
-        <v>25530.09</v>
+        <v>25400.13</v>
       </c>
       <c r="E43" t="n">
-        <v>0.45</v>
+        <v>0.4487</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4542</v>
+        <v>0.4547</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5836</v>
+        <v>0.5843</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6428</v>
+        <v>0.6446</v>
       </c>
     </row>
     <row r="44">
@@ -1592,19 +1592,19 @@
         <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>2744.74</v>
+        <v>2744.78</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4992</v>
+        <v>0.4993</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4027</v>
+        <v>0.4024</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4678</v>
+        <v>0.4674</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6635</v>
+        <v>0.6632</v>
       </c>
     </row>
     <row r="45">
@@ -1618,19 +1618,19 @@
         <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>19712.11</v>
+        <v>3466.49</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9205</v>
+        <v>0.6707</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0584</v>
+        <v>0.197</v>
       </c>
       <c r="G45" t="n">
-        <v>0.104</v>
+        <v>0.3323</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2482</v>
+        <v>0.7341</v>
       </c>
     </row>
     <row r="46">
@@ -1644,19 +1644,19 @@
         <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>11459.93</v>
+        <v>11460.86</v>
       </c>
       <c r="E46" t="n">
         <v>0.6084</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1145</v>
+        <v>0.1144</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1623</v>
+        <v>0.1621</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4509</v>
+        <v>0.4508</v>
       </c>
     </row>
     <row r="47">
@@ -1679,7 +1679,7 @@
         <v>0.6248</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7502</v>
+        <v>0.7501</v>
       </c>
       <c r="H47" t="n">
         <v>0.7958</v>
@@ -1708,7 +1708,7 @@
         <v>0.7417</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8134</v>
+        <v>0.8133</v>
       </c>
     </row>
     <row r="49">
@@ -1722,19 +1722,19 @@
         <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>5.83</v>
+        <v>45.61</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0432</v>
+        <v>0.2612</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9232</v>
+        <v>0.6722</v>
       </c>
       <c r="G49" t="n">
-        <v>1.3798</v>
+        <v>0.851</v>
       </c>
       <c r="H49" t="n">
-        <v>1.3888</v>
+        <v>0.8623</v>
       </c>
     </row>
     <row r="50">
@@ -1748,19 +1748,19 @@
         <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>69950.52</v>
+        <v>83764.52</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4857</v>
+        <v>0.5307</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4335</v>
+        <v>0.391</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5169</v>
+        <v>0.5028</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6555</v>
+        <v>0.6556</v>
       </c>
     </row>
     <row r="51">
@@ -1774,10 +1774,10 @@
         <v>38</v>
       </c>
       <c r="D51" t="n">
-        <v>56903.92</v>
+        <v>56909.85</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2664</v>
+        <v>0.2665</v>
       </c>
       <c r="F51" t="n">
         <v>0.6621</v>
@@ -1786,7 +1786,7 @@
         <v>0.7436</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8196</v>
+        <v>0.8195</v>
       </c>
     </row>
     <row r="52">
@@ -1800,19 +1800,19 @@
         <v>38</v>
       </c>
       <c r="D52" t="n">
-        <v>-40091.7</v>
+        <v>-32227.68</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2816</v>
+        <v>-0.2145</v>
       </c>
       <c r="F52" t="n">
-        <v>1.1411</v>
+        <v>1.0795</v>
       </c>
       <c r="G52" t="n">
-        <v>1.2548</v>
+        <v>1.2101</v>
       </c>
       <c r="H52" t="n">
-        <v>1.5084</v>
+        <v>1.4097</v>
       </c>
     </row>
     <row r="53">
@@ -1826,19 +1826,19 @@
         <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>43407.18</v>
+        <v>117935.49</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9744</v>
+        <v>0.9904</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0027</v>
+        <v>0.0009</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0051</v>
+        <v>0.0072</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0107</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="54">
@@ -1852,19 +1852,19 @@
         <v>38</v>
       </c>
       <c r="D54" t="n">
-        <v>44941.3</v>
+        <v>44140.4</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2518</v>
+        <v>0.2484</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6803</v>
+        <v>0.685</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7822</v>
+        <v>0.7821</v>
       </c>
       <c r="H54" t="n">
-        <v>0.844</v>
+        <v>0.8466</v>
       </c>
     </row>
     <row r="55">
@@ -1878,19 +1878,19 @@
         <v>38</v>
       </c>
       <c r="D55" t="n">
-        <v>2523.4</v>
+        <v>377.34</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2204</v>
+        <v>0.0406</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7125</v>
+        <v>0.8872</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7768</v>
+        <v>1.003</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9039</v>
+        <v>1.0401</v>
       </c>
     </row>
     <row r="56">
@@ -1904,19 +1904,19 @@
         <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>6536.25</v>
+        <v>6558.1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2569</v>
+        <v>0.2575</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6617</v>
+        <v>0.6564</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7845</v>
+        <v>0.7672</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8468</v>
+        <v>0.8423</v>
       </c>
     </row>
     <row r="57">
@@ -1930,19 +1930,19 @@
         <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>-10905.35</v>
+        <v>4893.27</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.037</v>
+        <v>0.0158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9174</v>
+        <v>0.8752</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0333</v>
+        <v>1.0261</v>
       </c>
       <c r="H57" t="n">
-        <v>1.1487</v>
+        <v>1.0796</v>
       </c>
     </row>
     <row r="58">
@@ -1956,19 +1956,19 @@
         <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>2392816.35</v>
+        <v>2552856.49</v>
       </c>
       <c r="E58" t="n">
-        <v>0.466</v>
+        <v>0.4821</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3518</v>
+        <v>0.2954</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6796</v>
+        <v>0.5441</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9418</v>
+        <v>0.8003</v>
       </c>
     </row>
     <row r="59">
@@ -1982,19 +1982,19 @@
         <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>4316.85</v>
+        <v>4267.54</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174</v>
+        <v>0.1723</v>
       </c>
       <c r="F59" t="n">
         <v>0.4908</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6978</v>
+        <v>0.7082</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8545</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="60">
@@ -2008,19 +2008,19 @@
         <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>5909.63</v>
+        <v>6371.36</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1507</v>
+        <v>0.1606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7868</v>
+        <v>0.7822</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8485</v>
+        <v>0.8379</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9159</v>
+        <v>0.9157</v>
       </c>
     </row>
     <row r="61">
@@ -2060,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>88701.17</v>
+        <v>88700.99</v>
       </c>
       <c r="E62" t="n">
         <v>0.1248</v>
@@ -2086,19 +2086,19 @@
         <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>7008.27</v>
+        <v>6822.09</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0963</v>
+        <v>0.094</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8028</v>
+        <v>0.8103</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9442</v>
+        <v>0.9275</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9915</v>
+        <v>0.9908</v>
       </c>
     </row>
     <row r="64">
@@ -2112,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>675490.78</v>
+        <v>675490.84</v>
       </c>
       <c r="E64" t="n">
         <v>0.18</v>
@@ -2138,19 +2138,19 @@
         <v>38</v>
       </c>
       <c r="D65" t="n">
-        <v>1610.68</v>
+        <v>1048.97</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6855</v>
+        <v>0.5867</v>
       </c>
       <c r="F65" t="n">
-        <v>0.23</v>
+        <v>0.2062</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4101</v>
+        <v>0.4346</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7652</v>
+        <v>0.6747</v>
       </c>
     </row>
     <row r="66">
@@ -2164,19 +2164,19 @@
         <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>5923.47</v>
+        <v>4826.4</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7354</v>
+        <v>0.6937</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1957</v>
+        <v>0.2276</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2587</v>
+        <v>0.2837</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3352</v>
+        <v>0.3638</v>
       </c>
     </row>
     <row r="67">
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>495832.21</v>
+        <v>493028.64</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6142</v>
+        <v>0.6128</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3012</v>
+        <v>0.3021</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3855</v>
+        <v>0.3898</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4905</v>
+        <v>0.4972</v>
       </c>
     </row>
     <row r="68">
@@ -2216,19 +2216,19 @@
         <v>38</v>
       </c>
       <c r="D68" t="n">
-        <v>78563.15</v>
+        <v>78426.65</v>
       </c>
       <c r="E68" t="n">
-        <v>0.622</v>
+        <v>0.6216</v>
       </c>
       <c r="F68" t="n">
-        <v>0.102</v>
+        <v>0.1018</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1796</v>
+        <v>0.1798</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6028</v>
+        <v>0.6038</v>
       </c>
     </row>
     <row r="69">
@@ -2242,19 +2242,19 @@
         <v>38</v>
       </c>
       <c r="D69" t="n">
-        <v>1432515537.32</v>
+        <v>110209.01</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.9688</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0004</v>
+        <v>0.02</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0011</v>
+        <v>0.0425</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0042</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="70">
@@ -2268,19 +2268,19 @@
         <v>38</v>
       </c>
       <c r="D70" t="n">
-        <v>231419.74</v>
+        <v>231419.66</v>
       </c>
       <c r="E70" t="n">
         <v>0.8007</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1743</v>
+        <v>0.1742</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2249</v>
+        <v>0.2247</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2656</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="71">
@@ -2346,19 +2346,19 @@
         <v>38</v>
       </c>
       <c r="D73" t="n">
-        <v>-552.49</v>
+        <v>-768.86</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1821</v>
+        <v>-0.2728</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0372</v>
+        <v>0.9186</v>
       </c>
       <c r="G73" t="n">
-        <v>1.1703</v>
+        <v>1.2099</v>
       </c>
       <c r="H73" t="n">
-        <v>1.3718</v>
+        <v>1.4975</v>
       </c>
     </row>
     <row r="74">
@@ -2372,19 +2372,19 @@
         <v>39</v>
       </c>
       <c r="D74" t="n">
-        <v>-133865.4</v>
+        <v>-116872.64</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.1194</v>
+        <v>-1.4581</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5801</v>
+        <v>0.5173</v>
       </c>
       <c r="G74" t="n">
-        <v>0.905</v>
+        <v>0.8079</v>
       </c>
       <c r="H74" t="n">
-        <v>1.727</v>
+        <v>1.2721</v>
       </c>
     </row>
     <row r="75">
@@ -2398,16 +2398,16 @@
         <v>39</v>
       </c>
       <c r="D75" t="n">
-        <v>34650.41</v>
+        <v>34654.97</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3751</v>
+        <v>0.3752</v>
       </c>
       <c r="F75" t="n">
         <v>0.5877</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6419</v>
+        <v>0.6418</v>
       </c>
       <c r="H75" t="n">
         <v>0.6599</v>
@@ -2424,19 +2424,19 @@
         <v>39</v>
       </c>
       <c r="D76" t="n">
-        <v>-22120.23</v>
+        <v>-18949.19</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4302</v>
+        <v>-0.3471</v>
       </c>
       <c r="F76" t="n">
-        <v>1.3454</v>
+        <v>1.2854</v>
       </c>
       <c r="G76" t="n">
-        <v>1.4132</v>
+        <v>1.3459</v>
       </c>
       <c r="H76" t="n">
-        <v>1.4623</v>
+        <v>1.3854</v>
       </c>
     </row>
     <row r="77">
@@ -2450,19 +2450,19 @@
         <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>-2086.52</v>
+        <v>88445.03</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.119</v>
+        <v>0.8184</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0181</v>
+        <v>0.0299</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1608</v>
+        <v>0.0964</v>
       </c>
       <c r="H77" t="n">
-        <v>1.3633</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="78">
@@ -2476,19 +2476,19 @@
         <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>16455.35</v>
+        <v>15939.35</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3167</v>
+        <v>0.3099</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6295</v>
+        <v>0.6361</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6607</v>
+        <v>0.6684</v>
       </c>
       <c r="H78" t="n">
-        <v>0.744</v>
+        <v>0.7505</v>
       </c>
     </row>
     <row r="79">
@@ -2502,19 +2502,19 @@
         <v>39</v>
       </c>
       <c r="D79" t="n">
-        <v>407.24</v>
+        <v>-1110.7</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0986</v>
+        <v>-0.425</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8628</v>
+        <v>1.2592</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9137</v>
+        <v>1.5305</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9845</v>
+        <v>1.6117</v>
       </c>
     </row>
     <row r="80">
@@ -2528,19 +2528,19 @@
         <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>2928.71</v>
+        <v>2977.12</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3448</v>
+        <v>0.3485</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6171</v>
+        <v>0.6199</v>
       </c>
       <c r="G80" t="n">
-        <v>0.669</v>
+        <v>0.6869</v>
       </c>
       <c r="H80" t="n">
-        <v>0.721</v>
+        <v>0.7056</v>
       </c>
     </row>
     <row r="81">
@@ -2554,19 +2554,19 @@
         <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>1696.63</v>
+        <v>6781.17</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0164</v>
+        <v>0.0626</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9127</v>
+        <v>0.895</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9623</v>
+        <v>0.9161</v>
       </c>
       <c r="H81" t="n">
-        <v>1.0577</v>
+        <v>0.9728</v>
       </c>
     </row>
     <row r="82">
@@ -2580,19 +2580,19 @@
         <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>-21818.01</v>
+        <v>512531.73</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.0132</v>
+        <v>0.2337</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2977</v>
+        <v>0.1971</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8282</v>
+        <v>0.5779</v>
       </c>
       <c r="H82" t="n">
-        <v>1.2283</v>
+        <v>0.9508</v>
       </c>
     </row>
     <row r="83">
@@ -2606,19 +2606,19 @@
         <v>39</v>
       </c>
       <c r="D83" t="n">
-        <v>3146.74</v>
+        <v>3135.2</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3711</v>
+        <v>0.3703</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3987</v>
+        <v>0.4049</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4445</v>
+        <v>0.4462</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7137</v>
+        <v>0.7031</v>
       </c>
     </row>
     <row r="84">
@@ -2632,19 +2632,19 @@
         <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>2328.82</v>
+        <v>2475.51</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1685</v>
+        <v>0.1772</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7887</v>
+        <v>0.7752</v>
       </c>
       <c r="G84" t="n">
-        <v>0.815</v>
+        <v>0.8002</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8556</v>
+        <v>0.8497</v>
       </c>
     </row>
     <row r="85">
@@ -2684,7 +2684,7 @@
         <v>39</v>
       </c>
       <c r="D86" t="n">
-        <v>38465.14</v>
+        <v>38465</v>
       </c>
       <c r="E86" t="n">
         <v>0.1434</v>
@@ -2710,19 +2710,19 @@
         <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>-3652.38</v>
+        <v>-3850.01</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.1417</v>
+        <v>-0.1505</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0733</v>
+        <v>1.0344</v>
       </c>
       <c r="G87" t="n">
-        <v>1.1046</v>
+        <v>1.139</v>
       </c>
       <c r="H87" t="n">
-        <v>1.2656</v>
+        <v>1.3056</v>
       </c>
     </row>
     <row r="88">
@@ -2736,13 +2736,13 @@
         <v>39</v>
       </c>
       <c r="D88" t="n">
-        <v>311585.47</v>
+        <v>311585.5</v>
       </c>
       <c r="E88" t="n">
         <v>0.2168</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7343</v>
+        <v>0.7342</v>
       </c>
       <c r="G88" t="n">
         <v>0.806</v>
@@ -2762,19 +2762,19 @@
         <v>39</v>
       </c>
       <c r="D89" t="n">
-        <v>561.29</v>
+        <v>254.99</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7084</v>
+        <v>0.5247</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2306</v>
+        <v>0.3879</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3588</v>
+        <v>0.4566</v>
       </c>
       <c r="H89" t="n">
-        <v>0.745</v>
+        <v>0.6893</v>
       </c>
     </row>
     <row r="90">
@@ -2788,19 +2788,19 @@
         <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>1141.17</v>
+        <v>50.5</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3358</v>
+        <v>0.0219</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6253</v>
+        <v>0.9148</v>
       </c>
       <c r="G90" t="n">
-        <v>0.653</v>
+        <v>0.9664</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6838</v>
+        <v>1.0992</v>
       </c>
     </row>
     <row r="91">
@@ -2814,19 +2814,19 @@
         <v>39</v>
       </c>
       <c r="D91" t="n">
-        <v>197745.72</v>
+        <v>194259.27</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6882</v>
+        <v>0.6843</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2619</v>
+        <v>0.2655</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2927</v>
+        <v>0.2959</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3601</v>
+        <v>0.3675</v>
       </c>
     </row>
     <row r="92">
@@ -2840,19 +2840,19 @@
         <v>39</v>
       </c>
       <c r="D92" t="n">
-        <v>41227.58</v>
+        <v>41028.4</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5249</v>
+        <v>0.5237</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1775</v>
+        <v>0.1778</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2819</v>
+        <v>0.2827</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6456</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="93">
@@ -2865,16 +2865,20 @@
       <c r="C93" t="s">
         <v>39</v>
       </c>
-      <c r="D93"/>
-      <c r="E93"/>
+      <c r="D93" t="n">
+        <v>48333.44</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9805</v>
+      </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0001</v>
+        <v>0.0338</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0001</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="94">
@@ -2888,19 +2892,19 @@
         <v>39</v>
       </c>
       <c r="D94" t="n">
-        <v>103231.48</v>
+        <v>103228.66</v>
       </c>
       <c r="E94" t="n">
         <v>0.805</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1023</v>
+        <v>0.1022</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2222</v>
+        <v>0.2221</v>
       </c>
       <c r="H94" t="n">
-        <v>0.278</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="95">
@@ -2966,19 +2970,19 @@
         <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-570.52</v>
+        <v>-719.62</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5295</v>
+        <v>-0.7751</v>
       </c>
       <c r="F97" t="n">
-        <v>1.2839</v>
+        <v>1.4041</v>
       </c>
       <c r="G97" t="n">
-        <v>1.5844</v>
+        <v>1.8208</v>
       </c>
       <c r="H97" t="n">
-        <v>1.709</v>
+        <v>2.0891</v>
       </c>
     </row>
   </sheetData>
